--- a/biology/Microbiologie/Urceolariidae/Urceolariidae.xlsx
+++ b/biology/Microbiologie/Urceolariidae/Urceolariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Urceolariidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peritrichida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Urceolaria, dérivé du latin urceolus, « petite tasse, petit vase »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Urceolaria, dérivé du latin urceolus, « petite tasse, petit vase ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Urceolariidae ont une taille petite (&lt; 80 µm) à moyenne (80 à 200 µm). Leur forme est cylindrique, souvent légèrement inclinée d'un côté. Ils possèdent un disque adhésif avec environ 20 denticules lisses, de forme simple, et sans cils scopulaires. La spirale adorable fait un circuit de 360 à 400°, sur un large rayon. Leur macronoyau est discoïde ou en forme de bande. Micronoyau et vacuole contractile sont présents. Le cytoprocte n’a pas été observé[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Urceolariidae ont une taille petite (&lt; 80 µm) à moyenne (80 à 200 µm). Leur forme est cylindrique, souvent légèrement inclinée d'un côté. Ils possèdent un disque adhésif avec environ 20 denticules lisses, de forme simple, et sans cils scopulaires. La spirale adorable fait un circuit de 360 à 400°, sur un large rayon. Leur macronoyau est discoïde ou en forme de bande. Micronoyau et vacuole contractile sont présents. Le cytoprocte n’a pas été observé.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Urceolariidae vivent aussi bien en milieu marin qu’en eau douce comme ectosymbiontes des vers turbellariés et les surfaces branchiales des vers polychètes et des mollusques[2], comme l'indiquent les épithètes spécifiques des espèces Urceolaria mitra et U. patella, respectivement « Urceolaires de la mitre et de la patelle » .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Urceolariidae vivent aussi bien en milieu marin qu’en eau douce comme ectosymbiontes des vers turbellariés et les surfaces branchiales des vers polychètes et des mollusques, comme l'indiquent les épithètes spécifiques des espèces Urceolaria mitra et U. patella, respectivement « Urceolaires de la mitre et de la patelle » .
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (25 février 2024)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (25 février 2024) :
 Dipartiella Stein, 1961
 Semitrichodina Kazubski, 1958
 Trichodinella Srámek-Husek, 1953
@@ -614,7 +634,7 @@
 Urceolaria Lamarck, 1801
 Urceolaria Stein, 1854 genre type
 Espèce type :  Urceolaria mitra (Siebold, 1850) Stein, 1867
-Selon Lynn (2010)[2] :
+Selon Lynn (2010) :
 Anthurceolaria Jankowski, 1980
 Monurceolaria Jankowski, 1980
 Orthurceolaria Jankowski, 1980
@@ -646,9 +666,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Urceolariidae Dujardin, 1840[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Urceolariidae Dujardin, 1840.
 </t>
         </is>
       </c>
